--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt2-Fzd3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt2-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,7 +88,10 @@
     <t>Fzd3</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.73335252099574</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H2">
-        <v>1.73335252099574</v>
+        <v>0.032107</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.126565788508971</v>
+        <v>0.174733</v>
       </c>
       <c r="N2">
-        <v>0.126565788508971</v>
+        <v>0.524199</v>
       </c>
       <c r="O2">
-        <v>0.04974750026494493</v>
+        <v>0.05882867859784573</v>
       </c>
       <c r="P2">
-        <v>0.04974750026494493</v>
+        <v>0.05882867859784573</v>
       </c>
       <c r="Q2">
-        <v>0.2193831285838385</v>
+        <v>0.001870050810333333</v>
       </c>
       <c r="R2">
-        <v>0.2193831285838385</v>
+        <v>0.016830457293</v>
       </c>
       <c r="S2">
-        <v>0.04974750026494493</v>
+        <v>0.000353983825650434</v>
       </c>
       <c r="T2">
-        <v>0.04974750026494493</v>
+        <v>0.000353983825650434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.73335252099574</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H3">
-        <v>1.73335252099574</v>
+        <v>0.032107</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.470426446766385</v>
+        <v>0.4828523333333334</v>
       </c>
       <c r="N3">
-        <v>0.470426446766385</v>
+        <v>1.448557</v>
       </c>
       <c r="O3">
-        <v>0.1849041519106016</v>
+        <v>0.1625655412995058</v>
       </c>
       <c r="P3">
-        <v>0.1849041519106016</v>
+        <v>0.1625655412995058</v>
       </c>
       <c r="Q3">
-        <v>0.8154148674455818</v>
+        <v>0.005167646622111111</v>
       </c>
       <c r="R3">
-        <v>0.8154148674455818</v>
+        <v>0.046508819599</v>
       </c>
       <c r="S3">
-        <v>0.1849041519106016</v>
+        <v>0.0009781891009573</v>
       </c>
       <c r="T3">
-        <v>0.1849041519106016</v>
+        <v>0.0009781891009573002</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -655,49 +661,483 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.73335252099574</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H4">
-        <v>1.73335252099574</v>
+        <v>0.032107</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.94717154853102</v>
+        <v>0.006173333333333333</v>
       </c>
       <c r="N4">
-        <v>1.94717154853102</v>
+        <v>0.01852</v>
       </c>
       <c r="O4">
-        <v>0.7653483478244535</v>
+        <v>0.002078422750963094</v>
       </c>
       <c r="P4">
-        <v>0.7653483478244535</v>
+        <v>0.002078422750963094</v>
       </c>
       <c r="Q4">
-        <v>3.375134712457422</v>
+        <v>6.606907111111111E-05</v>
       </c>
       <c r="R4">
-        <v>3.375134712457422</v>
+        <v>0.0005946216399999999</v>
       </c>
       <c r="S4">
-        <v>0.7653483478244535</v>
+        <v>1.250628187204866E-05</v>
       </c>
       <c r="T4">
-        <v>0.7653483478244535</v>
+        <v>1.250628187204866E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01070233333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.032107</v>
+      </c>
+      <c r="I5">
+        <v>0.006017198313602724</v>
+      </c>
+      <c r="J5">
+        <v>0.006017198313602724</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.02610233333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.078307</v>
+      </c>
+      <c r="O5">
+        <v>0.00878806967384811</v>
+      </c>
+      <c r="P5">
+        <v>0.008788069673848112</v>
+      </c>
+      <c r="Q5">
+        <v>0.0002793558721111111</v>
+      </c>
+      <c r="R5">
+        <v>0.002514202849</v>
+      </c>
+      <c r="S5">
+        <v>5.287955802130209E-05</v>
+      </c>
+      <c r="T5">
+        <v>5.28795580213021E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01070233333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.032107</v>
+      </c>
+      <c r="I6">
+        <v>0.006017198313602724</v>
+      </c>
+      <c r="J6">
+        <v>0.006017198313602724</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.28034</v>
+      </c>
+      <c r="N6">
+        <v>6.84102</v>
+      </c>
+      <c r="O6">
+        <v>0.7677392876778373</v>
+      </c>
+      <c r="P6">
+        <v>0.7677392876778373</v>
+      </c>
+      <c r="Q6">
+        <v>0.02440495879333333</v>
+      </c>
+      <c r="R6">
+        <v>0.21964462914</v>
+      </c>
+      <c r="S6">
+        <v>0.004619639547101639</v>
+      </c>
+      <c r="T6">
+        <v>0.004619639547101639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H7">
+        <v>5.303765</v>
+      </c>
+      <c r="I7">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J7">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.174733</v>
+      </c>
+      <c r="N7">
+        <v>0.524199</v>
+      </c>
+      <c r="O7">
+        <v>0.05882867859784573</v>
+      </c>
+      <c r="P7">
+        <v>0.05882867859784573</v>
+      </c>
+      <c r="Q7">
+        <v>0.3089142565816667</v>
+      </c>
+      <c r="R7">
+        <v>2.780228309235</v>
+      </c>
+      <c r="S7">
+        <v>0.05847469477219529</v>
+      </c>
+      <c r="T7">
+        <v>0.0584746947721953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H8">
+        <v>5.303765</v>
+      </c>
+      <c r="I8">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J8">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.4828523333333334</v>
+      </c>
+      <c r="N8">
+        <v>1.448557</v>
+      </c>
+      <c r="O8">
+        <v>0.1625655412995058</v>
+      </c>
+      <c r="P8">
+        <v>0.1625655412995058</v>
+      </c>
+      <c r="Q8">
+        <v>0.8536451019005558</v>
+      </c>
+      <c r="R8">
+        <v>7.682805917105001</v>
+      </c>
+      <c r="S8">
+        <v>0.1615873521985485</v>
+      </c>
+      <c r="T8">
+        <v>0.1615873521985485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H9">
+        <v>5.303765</v>
+      </c>
+      <c r="I9">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J9">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.006173333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.01852</v>
+      </c>
+      <c r="O9">
+        <v>0.002078422750963094</v>
+      </c>
+      <c r="P9">
+        <v>0.002078422750963094</v>
+      </c>
+      <c r="Q9">
+        <v>0.01091396975555556</v>
+      </c>
+      <c r="R9">
+        <v>0.0982257278</v>
+      </c>
+      <c r="S9">
+        <v>0.002065916469091045</v>
+      </c>
+      <c r="T9">
+        <v>0.002065916469091046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H10">
+        <v>5.303765</v>
+      </c>
+      <c r="I10">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J10">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.02610233333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.078307</v>
+      </c>
+      <c r="O10">
+        <v>0.00878806967384811</v>
+      </c>
+      <c r="P10">
+        <v>0.008788069673848112</v>
+      </c>
+      <c r="Q10">
+        <v>0.04614688065055556</v>
+      </c>
+      <c r="R10">
+        <v>0.4153219258550001</v>
+      </c>
+      <c r="S10">
+        <v>0.008735190115826809</v>
+      </c>
+      <c r="T10">
+        <v>0.00873519011582681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H11">
+        <v>5.303765</v>
+      </c>
+      <c r="I11">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J11">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.28034</v>
+      </c>
+      <c r="N11">
+        <v>6.84102</v>
+      </c>
+      <c r="O11">
+        <v>0.7677392876778373</v>
+      </c>
+      <c r="P11">
+        <v>0.7677392876778373</v>
+      </c>
+      <c r="Q11">
+        <v>4.031462493366668</v>
+      </c>
+      <c r="R11">
+        <v>36.2831624403</v>
+      </c>
+      <c r="S11">
+        <v>0.7631196481307356</v>
+      </c>
+      <c r="T11">
+        <v>0.7631196481307356</v>
       </c>
     </row>
   </sheetData>
